--- a/Controle-Financeiro.xlsx
+++ b/Controle-Financeiro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Codigos\Excel projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC10ED-D907-40A6-A90C-47FB9AB370D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5EC2BB-E97B-40A6-A5EA-6D7B2D1958B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E78D65D-8EDE-45F5-A6A2-1F675B1E4997}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E78D65D-8EDE-45F5-A6A2-1F675B1E4997}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,13 +198,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,7 +541,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,178 +553,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2900</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>2900</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>2900</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>2900</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>2900</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>2900</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>2900</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>2900</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>2900</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>2900</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>2900</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>2900</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>200</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>B21</f>
-        <v>1196</v>
-      </c>
-      <c r="D3" s="1">
+        <v>696</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" ref="D3:M3" si="0">C21</f>
-        <v>2251</v>
-      </c>
-      <c r="E3" s="1">
+        <v>1251</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>3306</v>
-      </c>
-      <c r="F3" s="1">
+        <v>1806</v>
+      </c>
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>4361</v>
-      </c>
-      <c r="G3" s="1">
+        <v>2361</v>
+      </c>
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>5416</v>
-      </c>
-      <c r="H3" s="1">
+        <v>2916</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>6471</v>
-      </c>
-      <c r="I3" s="1">
+        <v>3471</v>
+      </c>
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>7526</v>
-      </c>
-      <c r="J3" s="1">
+        <v>4026</v>
+      </c>
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>8581</v>
-      </c>
-      <c r="K3" s="1">
+        <v>4581</v>
+      </c>
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
-        <v>9636</v>
-      </c>
-      <c r="L3" s="1">
+        <v>5136</v>
+      </c>
+      <c r="L3" s="3">
         <f t="shared" si="0"/>
-        <v>10691</v>
-      </c>
-      <c r="M3" s="1">
+        <v>5691</v>
+      </c>
+      <c r="M3" s="3">
         <f t="shared" si="0"/>
-        <v>13196</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>400</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>400</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>400</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>400</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>400</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>400</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>400</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>400</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>400</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>400</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>400</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
@@ -690,481 +739,556 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>65</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>65</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>65</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>65</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>65</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>65</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>65</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>65</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>65</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>65</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <v>65</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>59</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>80</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>80</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>80</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>80</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>80</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>80</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>80</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>80</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>80</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="5">
         <v>80</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="5">
+        <v>500</v>
+      </c>
+      <c r="C9" s="5">
+        <v>500</v>
+      </c>
+      <c r="D9" s="5">
+        <v>500</v>
+      </c>
+      <c r="E9" s="5">
+        <v>500</v>
+      </c>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>500</v>
+      </c>
+      <c r="H9" s="5">
+        <v>500</v>
+      </c>
+      <c r="I9" s="5">
+        <v>500</v>
+      </c>
+      <c r="J9" s="5">
+        <v>500</v>
+      </c>
+      <c r="K9" s="5">
+        <v>500</v>
+      </c>
+      <c r="L9" s="5">
+        <v>500</v>
+      </c>
+      <c r="M9" s="5">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>500</v>
-      </c>
-      <c r="C10" s="1">
-        <v>500</v>
-      </c>
-      <c r="D10" s="1">
-        <v>500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>500</v>
-      </c>
-      <c r="F10" s="1">
-        <v>500</v>
-      </c>
-      <c r="G10" s="1">
-        <v>500</v>
-      </c>
-      <c r="H10" s="1">
-        <v>500</v>
-      </c>
-      <c r="I10" s="1">
-        <v>500</v>
-      </c>
-      <c r="J10" s="1">
-        <v>500</v>
-      </c>
-      <c r="K10" s="1">
-        <v>500</v>
-      </c>
-      <c r="L10" s="1">
-        <v>500</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="B10" s="5">
+        <v>500</v>
+      </c>
+      <c r="C10" s="5">
+        <v>500</v>
+      </c>
+      <c r="D10" s="5">
+        <v>500</v>
+      </c>
+      <c r="E10" s="5">
+        <v>500</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+      <c r="G10" s="5">
+        <v>500</v>
+      </c>
+      <c r="H10" s="5">
+        <v>500</v>
+      </c>
+      <c r="I10" s="5">
+        <v>500</v>
+      </c>
+      <c r="J10" s="5">
+        <v>500</v>
+      </c>
+      <c r="K10" s="5">
+        <v>500</v>
+      </c>
+      <c r="L10" s="5">
+        <v>500</v>
+      </c>
+      <c r="M10" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1">
-        <v>100</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1">
-        <v>100</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
-      </c>
-      <c r="L11" s="1">
-        <v>100</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="B11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5">
+        <v>100</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100</v>
+      </c>
+      <c r="M11" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>800</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>800</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>800</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>800</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>800</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>800</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>800</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>800</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>800</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="5">
         <v>800</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>800</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="5">
         <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1">
-        <v>100</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="B14" s="5">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>100</v>
+      </c>
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+      <c r="J14" s="5">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5">
+        <v>100</v>
+      </c>
+      <c r="L14" s="5">
+        <v>100</v>
+      </c>
+      <c r="M14" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>600</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>600</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>600</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>600</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>600</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>600</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <v>600</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>600</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <v>600</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <v>600</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="5">
         <v>600</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <f>SUM(B2:B4)</f>
         <v>3500</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:M19" si="1">SUM(C2:C4)</f>
-        <v>4496</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:K19" si="1">SUM(C2:C4)</f>
+        <v>3996</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>5551</v>
-      </c>
-      <c r="E19" s="1">
+        <v>4551</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>6606</v>
-      </c>
-      <c r="F19" s="1">
+        <v>5106</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>7661</v>
-      </c>
-      <c r="G19" s="1">
+        <v>5661</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>8716</v>
-      </c>
-      <c r="H19" s="1">
+        <v>6216</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>9771</v>
-      </c>
-      <c r="I19" s="1">
+        <v>6771</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
-        <v>10826</v>
-      </c>
-      <c r="J19" s="1">
+        <v>7326</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
-        <v>11881</v>
-      </c>
-      <c r="K19" s="1">
+        <v>7881</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>12936</v>
-      </c>
-      <c r="L19" s="1">
+        <v>8436</v>
+      </c>
+      <c r="L19" s="4">
         <f>SUM(L2:L5)</f>
-        <v>15441</v>
-      </c>
-      <c r="M19" s="1">
+        <v>10441</v>
+      </c>
+      <c r="M19" s="4">
         <f>SUM(M2:M5)</f>
-        <v>17946</v>
+        <v>12446</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <f>SUM(B6:B16)</f>
-        <v>2304</v>
-      </c>
-      <c r="C20" s="1">
+        <v>2804</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" ref="C20:M20" si="2">SUM(C6:C16)</f>
-        <v>2245</v>
-      </c>
-      <c r="D20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="E20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="F20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="G20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="H20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="I20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="J20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="K20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="L20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
-      </c>
-      <c r="M20" s="1">
+        <v>2745</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="2"/>
-        <v>2245</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <f>B19-B20</f>
-        <v>1196</v>
-      </c>
-      <c r="C21" s="1">
+        <v>696</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" ref="C21:M21" si="3">C19-C20</f>
-        <v>2251</v>
-      </c>
-      <c r="D21" s="1">
+        <v>1251</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="3"/>
-        <v>3306</v>
-      </c>
-      <c r="E21" s="1">
+        <v>1806</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="3"/>
-        <v>4361</v>
-      </c>
-      <c r="F21" s="1">
+        <v>2361</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>5416</v>
-      </c>
-      <c r="G21" s="1">
+        <v>2916</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>6471</v>
-      </c>
-      <c r="H21" s="1">
+        <v>3471</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="3"/>
-        <v>7526</v>
-      </c>
-      <c r="I21" s="1">
+        <v>4026</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>8581</v>
-      </c>
-      <c r="J21" s="1">
+        <v>4581</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="3"/>
-        <v>9636</v>
-      </c>
-      <c r="K21" s="1">
+        <v>5136</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="3"/>
-        <v>10691</v>
-      </c>
-      <c r="L21" s="1">
+        <v>5691</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="3"/>
-        <v>13196</v>
-      </c>
-      <c r="M21" s="1">
+        <v>7696</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="3"/>
-        <v>15701</v>
+        <v>9701</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>